--- a/Excel/timesheet.xlsx
+++ b/Excel/timesheet.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -555,9 +555,60 @@
         <v>2024-11-19</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>p3</v>
+      </c>
+      <c r="B10" t="str">
+        <v>p3</v>
+      </c>
+      <c r="C10" t="str">
+        <v>22:52</v>
+      </c>
+      <c r="D10" t="str">
+        <v>02:52</v>
+      </c>
+      <c r="E10" t="str">
+        <v>2024-11-21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>p3</v>
+      </c>
+      <c r="B11" t="str">
+        <v>p3</v>
+      </c>
+      <c r="C11" t="str">
+        <v>22:52</v>
+      </c>
+      <c r="D11" t="str">
+        <v>02:52</v>
+      </c>
+      <c r="E11" t="str">
+        <v>2024-11-21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>jaykishan resort</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Property 400</v>
+      </c>
+      <c r="C12" t="str">
+        <v>18:52</v>
+      </c>
+      <c r="D12" t="str">
+        <v>07:50</v>
+      </c>
+      <c r="E12" t="str">
+        <v>2024-11-25</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E12"/>
   </ignoredErrors>
 </worksheet>
 </file>